--- a/biology/Botanique/Parc_Roland-Veillet/Parc_Roland-Veillet.xlsx
+++ b/biology/Botanique/Parc_Roland-Veillet/Parc_Roland-Veillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">48° 05′ 32″ N, 77° 49′ 42″ O
 Le Parc Rolland-Veillet est un parc public situé à l'intersection des rues Bussières et Mercedès-Bourgeois, dans la partie Ouest de la ville de Val-d'Or, dans la municipalité régionale de comté de La Vallée-de-l'Or, dans la région administrative de l'Abitibi-Témiscamingue, au Québec, au Canada.
@@ -513,9 +525,11 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arrivé à Val-d'Or en 1936, Roland Veillet (1918-2001), entrepreneur électricien, a fondé, avec Paul Gosselin, la compagnie Veillet et Gosselin. Roland Veillet exerça notamment la fonction de marguillier de la paroisse de Saint-Sauveur (Val-d'Or), de 1939 à 1946, président du Club Richelieu, ainsi que commissaire et président de la Commission scolaire régionale de Val-d'Or. Le toponyme "Parc Roland-Veillet" a été officialisé le 26 avril 2011 à la Commission de toponymie du Québec[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arrivé à Val-d'Or en 1936, Roland Veillet (1918-2001), entrepreneur électricien, a fondé, avec Paul Gosselin, la compagnie Veillet et Gosselin. Roland Veillet exerça notamment la fonction de marguillier de la paroisse de Saint-Sauveur (Val-d'Or), de 1939 à 1946, président du Club Richelieu, ainsi que commissaire et président de la Commission scolaire régionale de Val-d'Or. Le toponyme "Parc Roland-Veillet" a été officialisé le 26 avril 2011 à la Commission de toponymie du Québec,.
 </t>
         </is>
       </c>
